--- a/Docs/SOW_Hytec_API.xlsx
+++ b/Docs/SOW_Hytec_API.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">Creating the API Tasks</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t xml:space="preserve">implent new API program to Hytec Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unplanned Tasks in Original Quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming Alarm system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R channels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarms retreive from API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarms write to SQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active serial Checker </t>
   </si>
   <si>
     <t xml:space="preserve">Total Hours</t>
@@ -183,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,12 +214,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -221,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,21 +261,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -349,6 +376,9 @@
       <c r="I11" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -360,14 +390,22 @@
       <c r="I12" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="J12" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,39 +484,51 @@
       <c r="A23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="I27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>26</v>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="I28" s="2" t="n">
-        <f aca="false">SUM(I3:I26)</f>
-        <v>86</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <f aca="false">SUM(J3:J26)</f>
-        <v>6.75</v>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -503,9 +553,23 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
+      <c r="I38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
+      <c r="I39" s="2" t="n">
+        <f aca="false">SUM(I3:I37)</f>
+        <v>86</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <f aca="false">SUM(J3:J37)</f>
+        <v>16.25</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -545,6 +609,39 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Docs/SOW_Hytec_API.xlsx
+++ b/Docs/SOW_Hytec_API.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">Creating the API Tasks</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Active serial Checker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add logger</t>
   </si>
   <si>
     <t xml:space="preserve">Total Hours</t>
@@ -201,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,10 +215,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -250,7 +249,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,22 +260,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="11" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -356,9 +355,6 @@
       <c r="I9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -405,7 +401,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,7 +480,7 @@
       <c r="A23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -532,6 +528,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -553,11 +555,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="I38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
